--- a/Accommodation.xlsx
+++ b/Accommodation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youssefawad/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56EA7F0-9B9F-2446-8B95-81E1B22E491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED4C26C-CA51-4947-9B1B-437D75BEE3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14880" yWindow="760" windowWidth="19680" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
   <si>
     <t>Accommodation Type</t>
   </si>
@@ -253,13 +253,37 @@
   </si>
   <si>
     <t>(51.50398,-0.08955)</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>https://www.kcl.ac.uk/accommodation/residences/city-vine-street</t>
+  </si>
+  <si>
+    <t>https://www.kcl.ac.uk/accommodation/residences/vauxhall</t>
+  </si>
+  <si>
+    <t>https://www.kcl.ac.uk/accommodation/residences/angel-lane</t>
+  </si>
+  <si>
+    <t>https://www.kcl.ac.uk/accommodation/residences/atlas</t>
+  </si>
+  <si>
+    <t>https://www.kcl.ac.uk/accommodation/residences/battersea</t>
+  </si>
+  <si>
+    <t>https://www.kcl.ac.uk/accommodation/residences/hayloft-point</t>
+  </si>
+  <si>
+    <t>https://www.kcl.ac.uk/accommodation/residences/orchard-lisle-and-iris-brook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -274,6 +298,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,10 +491,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -503,11 +536,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="FkGroteskNeue"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFE5E7EB"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFE5E7EB"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFE5E7EB"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFE5E7EB"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -569,9 +658,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -586,16 +675,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:H20">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:I20">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Accommodation Type"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Features"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Location"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Distance to Strand"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Room Type"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Cost (per week)"/>
-    <tableColumn id="9" xr3:uid="{26B55097-B8A4-A345-AC25-785B4C59B79A}" name="Details" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="loc"/>
+    <tableColumn id="9" xr3:uid="{26B55097-B8A4-A345-AC25-785B4C59B79A}" name="Details" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{CCF74B2C-5F3B-BD43-9775-F42D479CF363}" name="loc" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="site"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -802,11 +892,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -819,9 +909,10 @@
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
     <col min="7" max="7" width="40.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="59.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,8 +937,11 @@
       <c r="H1" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="56">
+      <c r="I1" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="56">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -872,8 +966,11 @@
       <c r="H2" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I2" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -890,8 +987,11 @@
       <c r="H3" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I3" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -908,8 +1008,11 @@
       <c r="H4" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I4" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
@@ -930,8 +1033,11 @@
       <c r="H5" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I5" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -948,8 +1054,11 @@
       <c r="H6" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I6" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -966,8 +1075,11 @@
       <c r="H7" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I7" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
@@ -992,8 +1104,11 @@
       <c r="H8" s="10" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I8" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -1010,8 +1125,11 @@
       <c r="H9" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I9" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="10" t="s">
@@ -1032,8 +1150,11 @@
       <c r="H10" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I10" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1050,8 +1171,11 @@
       <c r="H11" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I11" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -1068,8 +1192,11 @@
       <c r="H12" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I12" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="11" t="s">
@@ -1090,8 +1217,11 @@
       <c r="H13" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I13" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="12" t="s">
@@ -1112,8 +1242,11 @@
       <c r="H14" s="12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I14" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="11" t="s">
@@ -1134,8 +1267,11 @@
       <c r="H15" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I15" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1144,8 +1280,9 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1154,8 +1291,9 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1164,8 +1302,9 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1174,8 +1313,9 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1184,11 +1324,28 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{FFF4FB14-C606-634A-8073-2DAF0C9037A3}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{CA320731-9145-A24A-ABDE-F5BD435AC04F}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{6149AFFA-8035-5A4C-BCD8-0AF2887C833D}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{E981E0DF-4921-C54C-B7CC-A41AF8563946}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{3877802C-149E-6648-8B02-4B2B14AAC93C}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{575113FA-C1DB-864D-AB37-4DFF253A7E5F}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{42BA6E45-A4E0-ED45-85FA-5EB93BDF832F}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{A5245F12-406E-3447-93A1-37FDF5F58FA3}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{7449F892-5134-004C-A27C-B7220796AA00}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{0D42DCF6-EC77-F24C-A85B-D6F833AB3BDA}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{4C704B8C-CA30-E349-9756-4A8BA496FD2A}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{F854A460-4395-8741-B349-EBAA30585B8F}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{53C90DC4-E228-1943-A33B-C730FB1F2F87}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{B607297E-2E00-2D4C-9BF2-50C4CF403DB5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
 </worksheet>
 </file>
